--- a/data/annotations/new_annotation_structure_out/iteration_12/iteration_12_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_12/iteration_12_mistral-large-2411-2.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4105,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4348,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4888,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
